--- a/ssm.xlsx
+++ b/ssm.xlsx
@@ -8,24 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGPC\Documents\inverted-pendulum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F49E363A-933F-4828-9279-AF648EB6986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCF8B02-C233-4DC2-8CAD-699DE7322F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{648B16CB-5721-4C85-A9C0-8F63E71D7A13}"/>
+    <workbookView xWindow="22932" yWindow="-9672" windowWidth="30936" windowHeight="16896" xr2:uid="{648B16CB-5721-4C85-A9C0-8F63E71D7A13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$H$3:$H$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$I$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$I$3:$I$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$J$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$J$3:$J$11</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$B$73</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$2:$C$73</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -141,7 +131,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -302,31 +296,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.0296900650000001E-2</c:v>
+                  <c:v>1.51405915E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4114862505624996E-3</c:v>
+                  <c:v>0.45335098500000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5933007507074995E-3</c:v>
+                  <c:v>0.29072714399999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30410238599999995</c:v>
+                  <c:v>0.31087321349999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67994751312500001</c:v>
+                  <c:v>0.38389228275000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15116031837499999</c:v>
+                  <c:v>4.0040629125000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30559794912499999</c:v>
+                  <c:v>0.71594959337499997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35462902462499996</c:v>
+                  <c:v>3.4016915249999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39706609124999998</c:v>
+                  <c:v>1.4288393762699999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -404,31 +398,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.2349831125000005E-2</c:v>
+                  <c:v>7.1323884874999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6958488749999999E-2</c:v>
+                  <c:v>0.40001668125000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4976656249999992E-2</c:v>
+                  <c:v>0.30182527650000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31575640874999999</c:v>
+                  <c:v>0.282506323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46353920149999994</c:v>
+                  <c:v>0.39326559237500003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.227976790875</c:v>
+                  <c:v>9.8335064375000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.308730008625</c:v>
+                  <c:v>0.58726261387500001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32334836324999999</c:v>
+                  <c:v>1.4718714875E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.350579847</c:v>
+                  <c:v>4.9614449999999992E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,15 +1184,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>365760</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>99059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>563880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>7619</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1224,6 +1218,23 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{947E682E-915B-41F6-B0EC-265A0355055F}" name="Table1" displayName="Table1" ref="A1:E73" totalsRowShown="0">
+  <autoFilter ref="A1:E73" xr:uid="{947E682E-915B-41F6-B0EC-265A0355055F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E73">
+    <sortCondition ref="B1:B73"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{88F0F3A2-7D79-4CC5-B88A-95B60AA91851}" name="Test #"/>
+    <tableColumn id="2" xr3:uid="{974495C9-957B-4F14-8B1F-99169A4EF66B}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{FB466740-EA7C-4400-9C50-02DE2D5FFF0D}" name="Loss"/>
+    <tableColumn id="4" xr3:uid="{B9789FDC-7E7C-49F5-AB23-621221EFAA39}" name="Mean Absolute Error (MAE)"/>
+    <tableColumn id="5" xr3:uid="{0B4A0114-C620-47BB-8733-136F62EBD871}" name="Mean Absolute Percentange Error (MAPE) %" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1525,15 +1536,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64785EE8-B78B-45D6-8B0F-E7CEFF5C5089}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:E73"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1561,16 +1572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>2.5530618000000001E-2</v>
+        <v>5.8867900000000003E-3</v>
       </c>
       <c r="D2">
-        <v>0.12015174300000001</v>
+        <v>5.8897461999999998E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>126.3849716</v>
+        <v>121.7832489</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -1583,270 +1594,297 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>2.921945E-3</v>
+        <v>5.8656150000000002E-3</v>
       </c>
       <c r="D3">
-        <v>4.2177036000000001E-2</v>
+        <v>6.3275494000000002E-2</v>
       </c>
       <c r="E3" s="2">
-        <v>74.585548399999993</v>
+        <v>27952.269530000001</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
         <f>AVERAGE(C2:C9)</f>
-        <v>1.0296900650000001E-2</v>
+        <v>1.51405915E-2</v>
       </c>
       <c r="J3">
         <f>AVERAGE(D2:D9)</f>
-        <v>6.2349831125000005E-2</v>
+        <v>7.1323884874999993E-2</v>
       </c>
       <c r="K3" s="2">
         <f>AVERAGE(E2:E9)</f>
-        <v>79.804349096875001</v>
+        <v>3555.689418635</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>2.1311200999999998E-2</v>
+        <v>1.1055240000000001E-3</v>
       </c>
       <c r="D4">
-        <v>0.107759222</v>
+        <v>2.9974114E-2</v>
       </c>
       <c r="E4" s="2">
-        <v>113.70508580000001</v>
+        <v>60.222000119999997</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
         <f>AVERAGE(C10:C17)</f>
-        <v>5.4114862505624996E-3</v>
+        <v>0.45335098500000004</v>
       </c>
       <c r="J4">
         <f>AVERAGE(D10:D17)</f>
-        <v>4.6958488749999999E-2</v>
+        <v>0.40001668125000001</v>
       </c>
       <c r="K4" s="2">
         <f>AVERAGE(E10:E17)</f>
-        <v>11378.071035215251</v>
+        <v>267.61117542950001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>5.8867900000000003E-3</v>
+        <v>1.2399877E-2</v>
       </c>
       <c r="D5">
-        <v>5.8897461999999998E-2</v>
+        <v>7.4661925000000004E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>121.7832489</v>
+        <v>53.74259567</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
         <f>AVERAGE(C18:C25)</f>
-        <v>6.5933007507074995E-3</v>
+        <v>0.29072714399999999</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:K5" si="0">AVERAGE(D18:D25)</f>
-        <v>5.4976656249999992E-2</v>
+        <f t="shared" ref="J5" si="0">AVERAGE(D18:D25)</f>
+        <v>0.30182527650000002</v>
       </c>
       <c r="K5" s="2">
         <f>AVERAGE(E18:E25)</f>
-        <v>76.835957547375017</v>
+        <v>2120.2501674587497</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2.3106273E-2</v>
+        <v>2.9366966000000001E-2</v>
       </c>
       <c r="D6">
-        <v>0.108474553</v>
+        <v>0.122652993</v>
       </c>
       <c r="E6" s="2">
-        <v>101.4566422</v>
+        <v>47.079395290000001</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6">
         <f>AVERAGE(C26:C33)</f>
-        <v>0.30410238599999995</v>
+        <v>0.31087321349999997</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:K6" si="1">AVERAGE(D26:D33)</f>
-        <v>0.31575640874999999</v>
+        <f t="shared" ref="J6" si="1">AVERAGE(D26:D33)</f>
+        <v>0.282506323</v>
       </c>
       <c r="K6" s="2">
         <f>AVERAGE(E26:E33)</f>
-        <v>88.665709253000017</v>
+        <v>1340.644355858625</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>3.5448770000000001E-3</v>
+        <v>7.8941659999999993E-3</v>
       </c>
       <c r="D7">
-        <v>5.5910170000000002E-2</v>
+        <v>6.3651882000000007E-2</v>
       </c>
       <c r="E7" s="2">
-        <v>90.34452057</v>
+        <v>128.9211731</v>
       </c>
       <c r="H7">
         <v>5</v>
       </c>
       <c r="I7">
         <f>AVERAGE(C34:C41)</f>
-        <v>0.67994751312500001</v>
+        <v>0.38389228275000004</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7:K7" si="2">AVERAGE(D34:D41)</f>
-        <v>0.46353920149999994</v>
+        <v>0.39326559237500003</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>76.535170679749996</v>
+        <v>2147.5345979112499</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.2E-9</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.3099999999999999E-5</v>
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>5.4830439000000002E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.132025003</v>
       </c>
       <c r="E8" s="2">
-        <v>2.7165595000000001E-2</v>
+        <v>40.441520689999997</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8">
         <f>AVERAGE(C42:C49)</f>
-        <v>0.15116031837499999</v>
+        <v>4.0040629125000005E-2</v>
       </c>
       <c r="J8">
         <f t="shared" ref="J8:K8" si="3">AVERAGE(D42:D49)</f>
-        <v>0.227976790875</v>
+        <v>9.8335064375000003E-2</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
-        <v>168.22912191887499</v>
+        <v>2342.17285230375</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>7.3499999999999998E-5</v>
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>3.7753550000000002E-3</v>
       </c>
       <c r="D9">
-        <v>5.4053629999999998E-3</v>
+        <v>2.5452206000000002E-2</v>
       </c>
       <c r="E9" s="2">
-        <v>10.147609709999999</v>
+        <v>41.055885310000001</v>
       </c>
       <c r="H9">
         <v>7</v>
       </c>
       <c r="I9">
         <f>AVERAGE(C50:C57)</f>
-        <v>0.30559794912499999</v>
+        <v>0.71594959337499997</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9:K9" si="4">AVERAGE(D50:D57)</f>
-        <v>0.308730008625</v>
+        <v>0.58726261387500001</v>
       </c>
       <c r="K9">
         <f t="shared" si="4"/>
-        <v>95.534917709750005</v>
+        <v>378.34147502374998</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>1.3366799E-2</v>
+        <v>1.703326E-3</v>
       </c>
       <c r="D10">
-        <v>8.1899553999999999E-2</v>
+        <v>6.4035810000000002E-3</v>
       </c>
       <c r="E10" s="2">
-        <v>9988.4316409999992</v>
+        <v>2.3155279160000002</v>
       </c>
       <c r="H10">
         <v>8</v>
       </c>
       <c r="I10">
         <f>AVERAGE(C58:C65)</f>
-        <v>0.35462902462499996</v>
+        <v>3.4016915249999997E-3</v>
       </c>
       <c r="J10">
         <f t="shared" ref="J10:K10" si="5">AVERAGE(D58:D65)</f>
-        <v>0.32334836324999999</v>
+        <v>1.4718714875E-2</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>161.75568258500002</v>
+        <v>13.876458857124998</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>2.655517E-3</v>
+        <v>2.1311200999999998E-2</v>
       </c>
       <c r="D11">
-        <v>3.3209427999999999E-2</v>
+        <v>0.107759222</v>
       </c>
       <c r="E11" s="2">
-        <v>15837.287109999999</v>
+        <v>113.70508580000001</v>
       </c>
       <c r="H11">
         <v>9</v>
       </c>
       <c r="I11">
         <f>AVERAGE(C66:C73)</f>
-        <v>0.39706609124999998</v>
+        <v>1.4288393762699999E-3</v>
       </c>
       <c r="J11">
         <f t="shared" ref="J11:K11" si="6">AVERAGE(D66:D73)</f>
-        <v>0.350579847</v>
+        <v>4.9614449999999992E-3</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>46.273580881125</v>
+        <v>5.5850234092499997</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -1861,878 +1899,1040 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>5.8656150000000002E-3</v>
+        <v>1.5022521E-2</v>
       </c>
       <c r="D13">
-        <v>6.3275494000000002E-2</v>
+        <v>9.8314083999999996E-2</v>
       </c>
       <c r="E13" s="2">
-        <v>27952.269530000001</v>
+        <v>97.75221252</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>1.0096020000000001E-2</v>
+        <v>0.81050366200000001</v>
       </c>
       <c r="D14">
-        <v>8.0041460999999994E-2</v>
+        <v>0.72689151799999996</v>
       </c>
       <c r="E14" s="2">
-        <v>18112.847659999999</v>
+        <v>171.81771850000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>2.7025740000000001E-3</v>
+        <v>1.626247287</v>
       </c>
       <c r="D15">
-        <v>4.816024E-2</v>
+        <v>0.99598514999999999</v>
       </c>
       <c r="E15" s="2">
-        <v>16105.190430000001</v>
+        <v>169.59742739999999</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
       <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4.4999999999999998E-12</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1.48E-6</v>
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0.40437981499999998</v>
+      </c>
+      <c r="D16">
+        <v>0.54063051900000003</v>
       </c>
       <c r="E16" s="2">
-        <v>0.58408582200000003</v>
+        <v>462.9063721</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
       <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2.8500000000000002E-5</v>
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0.73906320299999995</v>
       </c>
       <c r="D17">
-        <v>3.5936129999999998E-3</v>
+        <v>0.65866273600000003</v>
       </c>
       <c r="E17" s="2">
-        <v>2068.6906739999999</v>
+        <v>163.52790830000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>1.0226805210000001</v>
+      </c>
+      <c r="D18">
+        <v>0.86393266899999999</v>
+      </c>
+      <c r="E18" s="2">
+        <v>492.2431641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>1.171221375</v>
+      </c>
+      <c r="D19">
+        <v>0.97720837599999999</v>
+      </c>
+      <c r="E19" s="2">
+        <v>135.9353333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>2.921945E-3</v>
+      </c>
+      <c r="D20">
+        <v>4.2177036000000001E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>74.585548399999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>2.655517E-3</v>
+      </c>
+      <c r="D21">
+        <v>3.3209427999999999E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>15837.287109999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>8.2864400000000008E-3</v>
+      </c>
+      <c r="D22">
+        <v>7.4031106999999999E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>155.40930180000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>2.2568795999999999E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.112877086</v>
+      </c>
+      <c r="E23" s="2">
+        <v>43.113361359999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>5</v>
       </c>
-      <c r="C18">
-        <v>1.6640795E-2</v>
-      </c>
-      <c r="D18">
-        <v>0.112657323</v>
-      </c>
-      <c r="E18" s="2">
-        <v>122.2580566</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C19">
-        <v>8.2864400000000008E-3</v>
-      </c>
-      <c r="D19">
-        <v>7.4031106999999999E-2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>155.40930180000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>1.5022521E-2</v>
-      </c>
-      <c r="D20">
-        <v>9.8314083999999996E-2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>97.75221252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>1.1055240000000001E-3</v>
-      </c>
-      <c r="D21">
-        <v>2.9974114E-2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>60.222000119999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <v>8.7804549999999995E-3</v>
-      </c>
-      <c r="D22">
-        <v>7.0288516999999995E-2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>60.829978939999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <v>2.7316720000000001E-3</v>
-      </c>
-      <c r="D23">
-        <v>4.6458509000000002E-2</v>
-      </c>
-      <c r="E23" s="2">
-        <v>95.354400630000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="1">
-        <v>5.6599999999999997E-12</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1.9199999999999998E-6</v>
+      <c r="C24">
+        <v>7.4431396999999996E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.19243691900000001</v>
       </c>
       <c r="E24" s="2">
-        <v>2.512149E-3</v>
+        <v>48.253921509999998</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6</v>
+      </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>1.78999E-4</v>
+        <v>2.1051160999999999E-2</v>
       </c>
       <c r="D25">
-        <v>8.0876760000000002E-3</v>
+        <v>0.118729591</v>
       </c>
       <c r="E25" s="2">
-        <v>22.85919762</v>
+        <v>175.17359920000001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>0.66900634800000003</v>
+        <v>4.3194793000000002E-2</v>
       </c>
       <c r="D26">
-        <v>0.70411509299999997</v>
+        <v>0.124861285</v>
       </c>
       <c r="E26" s="2">
-        <v>225.02073669999999</v>
+        <v>67.813873290000004</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>8</v>
+      </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27">
-        <v>2.2568795999999999E-2</v>
+        <v>4.2575190000000004E-3</v>
       </c>
       <c r="D27">
-        <v>0.112877086</v>
+        <v>3.2367255999999997E-2</v>
       </c>
       <c r="E27" s="2">
-        <v>43.113361359999999</v>
+        <v>39.448234560000003</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9</v>
+      </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>0.81050366200000001</v>
+        <v>1.789578E-3</v>
       </c>
       <c r="D28">
-        <v>0.72689151799999996</v>
+        <v>9.1468169999999998E-3</v>
       </c>
       <c r="E28" s="2">
-        <v>171.81771850000001</v>
+        <v>1.4886478190000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>1.2399877E-2</v>
+        <v>2.5530618000000001E-2</v>
       </c>
       <c r="D29">
-        <v>7.4661925000000004E-2</v>
+        <v>0.12015174300000001</v>
       </c>
       <c r="E29" s="2">
-        <v>53.74259567</v>
+        <v>126.3849716</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>0.90426492700000005</v>
+        <v>1.3366799E-2</v>
       </c>
       <c r="D30">
-        <v>0.79596120100000001</v>
+        <v>8.1899553999999999E-2</v>
       </c>
       <c r="E30" s="2">
-        <v>140.24980160000001</v>
+        <v>9988.4316409999992</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>1.3097572E-2</v>
+        <v>1.6640795E-2</v>
       </c>
       <c r="D31">
-        <v>9.0161330999999997E-2</v>
+        <v>0.112657323</v>
       </c>
       <c r="E31" s="2">
-        <v>61.502513890000003</v>
+        <v>122.2580566</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
       <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="1">
-        <v>5.4400000000000001E-5</v>
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>0.66900634800000003</v>
       </c>
       <c r="D32">
-        <v>5.3034520000000002E-3</v>
+        <v>0.70411509299999997</v>
       </c>
       <c r="E32" s="2">
-        <v>4.9068126679999997</v>
+        <v>225.02073669999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>9.2350600000000004E-4</v>
+        <v>1.7131992579999999</v>
       </c>
       <c r="D33">
-        <v>1.6079664E-2</v>
+        <v>1.074851513</v>
       </c>
       <c r="E33" s="2">
-        <v>8.9721336360000006</v>
+        <v>154.30868530000001</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34">
-        <v>1.7131992579999999</v>
+        <v>0.38760462400000001</v>
       </c>
       <c r="D34">
-        <v>1.074851513</v>
+        <v>0.47419440699999998</v>
       </c>
       <c r="E34" s="2">
-        <v>154.30868530000001</v>
+        <v>165.89743039999999</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7</v>
+      </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>7.4431396999999996E-2</v>
+        <v>0.70381289700000005</v>
       </c>
       <c r="D35">
-        <v>0.19243691900000001</v>
+        <v>0.65920358899999998</v>
       </c>
       <c r="E35" s="2">
-        <v>48.253921509999998</v>
+        <v>178.0681305</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>8</v>
+      </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>1.626247287</v>
+        <v>0.92329162399999998</v>
       </c>
       <c r="D36">
-        <v>0.99598514999999999</v>
+        <v>0.83652955299999998</v>
       </c>
       <c r="E36" s="2">
-        <v>169.59742739999999</v>
+        <v>359.07290649999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9</v>
+      </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>2.9366966000000001E-2</v>
+        <v>1.034352422</v>
       </c>
       <c r="D37">
-        <v>0.122652993</v>
+        <v>0.93550694000000001</v>
       </c>
       <c r="E37" s="2">
-        <v>47.079395290000001</v>
+        <v>124.8464508</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>1.9085346459999999</v>
+        <v>3.5448770000000001E-3</v>
       </c>
       <c r="D38">
-        <v>1.0955622199999999</v>
+        <v>5.5910170000000002E-2</v>
       </c>
       <c r="E38" s="2">
-        <v>127.1246567</v>
+        <v>90.34452057</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39">
-        <v>7.9574040999999998E-2</v>
+        <v>2.7025740000000001E-3</v>
       </c>
       <c r="D39">
-        <v>0.18095050800000001</v>
+        <v>4.816024E-2</v>
       </c>
       <c r="E39" s="2">
-        <v>35.462776179999999</v>
+        <v>16105.190430000001</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>1.492068E-3</v>
+        <v>2.7316720000000001E-3</v>
       </c>
       <c r="D40">
-        <v>1.0958008999999999E-2</v>
+        <v>4.6458509000000002E-2</v>
       </c>
       <c r="E40" s="2">
-        <v>5.2043600080000001</v>
+        <v>95.354400630000001</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>6.7344420000000002E-3</v>
+        <v>1.3097572E-2</v>
       </c>
       <c r="D41">
-        <v>3.4916299999999997E-2</v>
+        <v>9.0161330999999997E-2</v>
       </c>
       <c r="E41" s="2">
-        <v>25.250143049999998</v>
+        <v>61.502513890000003</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>7.9574040999999998E-2</v>
+      </c>
+      <c r="D42">
+        <v>0.18095050800000001</v>
+      </c>
+      <c r="E42" s="2">
+        <v>35.462776179999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>6</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42">
-        <v>0.38760462400000001</v>
-      </c>
-      <c r="D42">
-        <v>0.47419440699999998</v>
-      </c>
-      <c r="E42" s="2">
-        <v>165.89743039999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>2.1051160999999999E-2</v>
+        <v>2.3230704000000001E-2</v>
       </c>
       <c r="D43">
-        <v>0.118729591</v>
+        <v>0.108836062</v>
       </c>
       <c r="E43" s="2">
-        <v>175.17359920000001</v>
+        <v>194.6915894</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7</v>
+      </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C44">
-        <v>0.40437981499999998</v>
+        <v>0.16897651599999999</v>
       </c>
       <c r="D44">
-        <v>0.54063051900000003</v>
+        <v>0.196065977</v>
       </c>
       <c r="E44" s="2">
-        <v>462.9063721</v>
+        <v>69.665763850000005</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>8</v>
+      </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>7.8941659999999993E-3</v>
+        <v>4.6125920000000004E-3</v>
       </c>
       <c r="D45">
-        <v>6.3651882000000007E-2</v>
+        <v>3.2822058000000001E-2</v>
       </c>
       <c r="E45" s="2">
-        <v>128.9211731</v>
+        <v>160.16371150000001</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9</v>
+      </c>
       <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>1.9484319999999999E-3</v>
+      </c>
+      <c r="D46">
+        <v>9.2013790000000008E-3</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2.2646963599999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
         <v>9</v>
       </c>
-      <c r="C46">
-        <v>0.36432835499999999</v>
-      </c>
-      <c r="D46">
-        <v>0.49785512700000001</v>
-      </c>
-      <c r="E46" s="2">
-        <v>196.38168329999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
       <c r="C47">
-        <v>2.3230704000000001E-2</v>
+        <v>2.3106273E-2</v>
       </c>
       <c r="D47">
-        <v>0.108836062</v>
+        <v>0.108474553</v>
       </c>
       <c r="E47" s="2">
-        <v>194.6915894</v>
+        <v>101.4566422</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
       <c r="B48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1.49E-5</v>
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>1.0096020000000001E-2</v>
       </c>
       <c r="D48">
-        <v>2.8397700000000001E-3</v>
+        <v>8.0041460999999994E-2</v>
       </c>
       <c r="E48" s="2">
-        <v>3.797809601</v>
+        <v>18112.847659999999</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3</v>
+      </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>7.7882199999999998E-4</v>
+        <v>8.7804549999999995E-3</v>
       </c>
       <c r="D49">
-        <v>1.7076969000000001E-2</v>
+        <v>7.0288516999999995E-2</v>
       </c>
       <c r="E49" s="2">
-        <v>18.063318249999998</v>
+        <v>60.829978939999997</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>0.90426492700000005</v>
+      </c>
+      <c r="D50">
+        <v>0.79596120100000001</v>
+      </c>
+      <c r="E50" s="2">
+        <v>140.24980160000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>1.9085346459999999</v>
+      </c>
+      <c r="D51">
+        <v>1.0955622199999999</v>
+      </c>
+      <c r="E51" s="2">
+        <v>127.1246567</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>0.36432835499999999</v>
+      </c>
+      <c r="D52">
+        <v>0.49785512700000001</v>
+      </c>
+      <c r="E52" s="2">
+        <v>196.38168329999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>7</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50">
-        <v>0.70381289700000005</v>
-      </c>
-      <c r="D50">
-        <v>0.65920358899999998</v>
-      </c>
-      <c r="E50" s="2">
-        <v>178.0681305</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51">
-        <v>4.3194793000000002E-2</v>
-      </c>
-      <c r="D51">
-        <v>0.124861285</v>
-      </c>
-      <c r="E51" s="2">
-        <v>67.813873290000004</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52">
-        <v>0.73906320299999995</v>
-      </c>
-      <c r="D52">
-        <v>0.65866273600000003</v>
-      </c>
-      <c r="E52" s="2">
-        <v>163.52790830000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>0.71553510399999998</v>
+      </c>
+      <c r="D53">
+        <v>0.66128295699999995</v>
+      </c>
+      <c r="E53" s="2">
+        <v>217.03236390000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>8</v>
       </c>
-      <c r="C53">
-        <v>5.4830439000000002E-2</v>
-      </c>
-      <c r="D53">
-        <v>0.132025003</v>
-      </c>
-      <c r="E53" s="2">
-        <v>40.441520689999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>9</v>
       </c>
       <c r="C54">
-        <v>0.71553510399999998</v>
+        <v>0.87278515099999998</v>
       </c>
       <c r="D54">
-        <v>0.66128295699999995</v>
+        <v>0.78184062200000004</v>
       </c>
       <c r="E54" s="2">
-        <v>217.03236390000001</v>
+        <v>167.60522460000001</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>9</v>
+      </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55">
-        <v>0.16897651599999999</v>
+        <v>0.96204656399999999</v>
       </c>
       <c r="D55">
-        <v>0.196065977</v>
+        <v>0.85659980800000002</v>
       </c>
       <c r="E55" s="2">
-        <v>69.665763850000005</v>
+        <v>99.499786380000003</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
       <c r="B56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56">
-        <v>4.7380449999999998E-3</v>
+        <v>12</v>
+      </c>
+      <c r="C56" s="1">
+        <v>7.3499999999999998E-5</v>
       </c>
       <c r="D56">
-        <v>6.8660220000000003E-3</v>
+        <v>5.4053629999999998E-3</v>
       </c>
       <c r="E56" s="2">
-        <v>7.4241895680000001</v>
+        <v>10.147609709999999</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
       <c r="B57" t="s">
         <v>12</v>
       </c>
-      <c r="C57">
-        <v>1.4632595999999999E-2</v>
+      <c r="C57" s="1">
+        <v>2.8500000000000002E-5</v>
       </c>
       <c r="D57">
-        <v>3.0872500000000001E-2</v>
+        <v>3.5936129999999998E-3</v>
       </c>
       <c r="E57" s="2">
-        <v>20.305591580000002</v>
+        <v>2068.6906739999999</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>1.78999E-4</v>
+      </c>
+      <c r="D58">
+        <v>8.0876760000000002E-3</v>
+      </c>
+      <c r="E58" s="2">
+        <v>22.85919762</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>9.2350600000000004E-4</v>
+      </c>
+      <c r="D59">
+        <v>1.6079664E-2</v>
+      </c>
+      <c r="E59" s="2">
+        <v>8.9721336360000006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>6.7344420000000002E-3</v>
+      </c>
+      <c r="D60">
+        <v>3.4916299999999997E-2</v>
+      </c>
+      <c r="E60" s="2">
+        <v>25.250143049999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>7.7882199999999998E-4</v>
+      </c>
+      <c r="D61">
+        <v>1.7076969000000001E-2</v>
+      </c>
+      <c r="E61" s="2">
+        <v>18.063318249999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>1.4632595999999999E-2</v>
+      </c>
+      <c r="D62">
+        <v>3.0872500000000001E-2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>20.305591580000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>8</v>
       </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58">
-        <v>0.92329162399999998</v>
-      </c>
-      <c r="D58">
-        <v>0.83652955299999998</v>
-      </c>
-      <c r="E58" s="2">
-        <v>359.07290649999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59">
-        <v>4.2575190000000004E-3</v>
-      </c>
-      <c r="D59">
-        <v>3.2367255999999997E-2</v>
-      </c>
-      <c r="E59" s="2">
-        <v>39.448234560000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60">
-        <v>1.0226805210000001</v>
-      </c>
-      <c r="D60">
-        <v>0.86393266899999999</v>
-      </c>
-      <c r="E60" s="2">
-        <v>492.2431641</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61">
-        <v>3.7753550000000002E-3</v>
-      </c>
-      <c r="D61">
-        <v>2.5452206000000002E-2</v>
-      </c>
-      <c r="E61" s="2">
-        <v>41.055885310000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>2.4923469999999998E-3</v>
+      </c>
+      <c r="D63">
+        <v>7.561786E-3</v>
+      </c>
+      <c r="E63" s="2">
+        <v>15.06449604</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>9</v>
       </c>
-      <c r="C62">
-        <v>0.87278515099999998</v>
-      </c>
-      <c r="D62">
-        <v>0.78184062200000004</v>
-      </c>
-      <c r="E62" s="2">
-        <v>167.60522460000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63">
-        <v>4.6125920000000004E-3</v>
-      </c>
-      <c r="D63">
-        <v>3.2822058000000001E-2</v>
-      </c>
-      <c r="E63" s="2">
-        <v>160.16371150000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>1.472819E-3</v>
+      </c>
+      <c r="D64">
+        <v>3.1317239999999998E-3</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.46962508600000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
         <v>11</v>
       </c>
-      <c r="C64">
-        <v>3.1370880000000001E-3</v>
-      </c>
-      <c r="D64">
-        <v>6.2807560000000002E-3</v>
-      </c>
-      <c r="E64" s="2">
-        <v>19.391838069999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65">
-        <v>2.4923469999999998E-3</v>
-      </c>
-      <c r="D65">
-        <v>7.561786E-3</v>
+      <c r="C65" s="1">
+        <v>1.2E-9</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2.3099999999999999E-5</v>
       </c>
       <c r="E65" s="2">
-        <v>15.06449604</v>
+        <v>2.7165595000000001E-2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="1">
+        <v>4.4999999999999998E-12</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1.48E-6</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.58408582200000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="1">
+        <v>5.6599999999999997E-12</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1.9199999999999998E-6</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2.512149E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5.4400000000000001E-5</v>
+      </c>
+      <c r="D68">
+        <v>5.3034520000000002E-3</v>
+      </c>
+      <c r="E68" s="2">
+        <v>4.9068126679999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>5</v>
       </c>
-      <c r="C66">
-        <v>1.034352422</v>
-      </c>
-      <c r="D66">
-        <v>0.93550694000000001</v>
-      </c>
-      <c r="E66" s="2">
-        <v>124.8464508</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>1.492068E-3</v>
+      </c>
+      <c r="D69">
+        <v>1.0958008999999999E-2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>5.2043600080000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>6</v>
       </c>
-      <c r="C67">
-        <v>1.789578E-3</v>
-      </c>
-      <c r="D67">
-        <v>9.1468169999999998E-3</v>
-      </c>
-      <c r="E67" s="2">
-        <v>1.4886478190000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1.49E-5</v>
+      </c>
+      <c r="D70">
+        <v>2.8397700000000001E-3</v>
+      </c>
+      <c r="E70" s="2">
+        <v>3.797809601</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>7</v>
       </c>
-      <c r="C68">
-        <v>1.171221375</v>
-      </c>
-      <c r="D68">
-        <v>0.97720837599999999</v>
-      </c>
-      <c r="E68" s="2">
-        <v>135.9353333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>4.7380449999999998E-3</v>
+      </c>
+      <c r="D71">
+        <v>6.8660220000000003E-3</v>
+      </c>
+      <c r="E71" s="2">
+        <v>7.4241895680000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>8</v>
       </c>
-      <c r="C69">
-        <v>1.703326E-3</v>
-      </c>
-      <c r="D69">
-        <v>6.4035810000000002E-3</v>
-      </c>
-      <c r="E69" s="2">
-        <v>2.3155279160000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70">
-        <v>0.96204656399999999</v>
-      </c>
-      <c r="D70">
-        <v>0.85659980800000002</v>
-      </c>
-      <c r="E70" s="2">
-        <v>99.499786380000003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71">
-        <v>1.9484319999999999E-3</v>
-      </c>
-      <c r="D71">
-        <v>9.2013790000000008E-3</v>
-      </c>
-      <c r="E71" s="2">
-        <v>2.2646963599999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>11</v>
       </c>
       <c r="C72">
+        <v>3.1370880000000001E-3</v>
+      </c>
+      <c r="D72">
+        <v>6.2807560000000002E-3</v>
+      </c>
+      <c r="E72" s="2">
+        <v>19.391838069999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73">
         <v>1.9942139999999998E-3</v>
       </c>
-      <c r="D72">
+      <c r="D73">
         <v>7.4401509999999999E-3</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E73" s="2">
         <v>3.3685793880000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73">
-        <v>1.472819E-3</v>
-      </c>
-      <c r="D73">
-        <v>3.1317239999999998E-3</v>
-      </c>
-      <c r="E73" s="2">
-        <v>0.46962508600000002</v>
       </c>
     </row>
   </sheetData>
@@ -2741,6 +2941,9 @@
     <ignoredError sqref="I3:J3" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2748,7 +2951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCE9985-E6C0-4C88-B94E-80E997079E78}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
